--- a/data/Moves-I.xlsx
+++ b/data/Moves-I.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33AB58D-C970-4E3D-93D6-615FFB9D9302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27960" windowHeight="12855"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="441">
-  <si>
-    <t>ELECTRIC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="440">
   <si>
     <t>Special</t>
   </si>
@@ -30,15 +33,9 @@
     <t>Absorb</t>
   </si>
   <si>
-    <t>GRASS</t>
-  </si>
-  <si>
     <t>User recovers half the HP inflicted on opponent.</t>
   </si>
   <si>
-    <t>ROCK</t>
-  </si>
-  <si>
     <t>Physical</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Acid</t>
   </si>
   <si>
-    <t>POISON</t>
-  </si>
-  <si>
     <t>May lower opponent's Special Defense.</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>Sharply raises user's Defense.</t>
   </si>
   <si>
-    <t>FLYING</t>
-  </si>
-  <si>
-    <t>NORMAL</t>
-  </si>
-  <si>
     <t>∞</t>
   </si>
   <si>
@@ -81,45 +69,24 @@
     <t>Agility</t>
   </si>
   <si>
-    <t>PSYCHIC</t>
-  </si>
-  <si>
     <t>Sharply raises user's Speed.</t>
   </si>
   <si>
     <t>May cause flinching.</t>
   </si>
   <si>
-    <t>FIGHTING</t>
-  </si>
-  <si>
     <t>Amnesia</t>
   </si>
   <si>
     <t>Sharply raises user's Special Defense.</t>
   </si>
   <si>
-    <t>WATER</t>
-  </si>
-  <si>
     <t>Hits 2-5 times in one turn.</t>
   </si>
   <si>
-    <t>DARK</t>
-  </si>
-  <si>
-    <t>GHOST</t>
-  </si>
-  <si>
-    <t>BUG</t>
-  </si>
-  <si>
     <t>Aurora Beam</t>
   </si>
   <si>
-    <t>ICE</t>
-  </si>
-  <si>
     <t>May lower opponent's Attack.</t>
   </si>
   <si>
@@ -144,9 +111,6 @@
     <t>Bite</t>
   </si>
   <si>
-    <t>FIRE</t>
-  </si>
-  <si>
     <t>User must recharge next turn.</t>
   </si>
   <si>
@@ -168,9 +132,6 @@
     <t>Bone Club</t>
   </si>
   <si>
-    <t>GROUND</t>
-  </si>
-  <si>
     <t>Bonemerang</t>
   </si>
   <si>
@@ -201,9 +162,6 @@
     <t>Clamp</t>
   </si>
   <si>
-    <t>DRAGON</t>
-  </si>
-  <si>
     <t>Comet Punch</t>
   </si>
   <si>
@@ -1339,12 +1297,57 @@
   </si>
   <si>
     <t>A long body, vines, or the like are used to wrap and squeeze the target for four to five turns.</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Electric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1470,6 +1473,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1517,7 +1523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1550,9 +1556,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1585,6 +1608,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1760,55 +1800,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="7" max="7" width="36.19921875" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1820,22 +1861,22 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -1847,103 +1888,103 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -1955,22 +1996,22 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -1982,76 +2023,76 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -2063,22 +2104,22 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>60</v>
@@ -2090,22 +2131,22 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>110</v>
@@ -2117,22 +2158,22 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>85</v>
@@ -2144,22 +2185,22 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>65</v>
@@ -2171,22 +2212,22 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -2198,22 +2239,22 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>40</v>
@@ -2225,22 +2266,22 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>65</v>
@@ -2252,22 +2293,22 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>35</v>
@@ -2279,22 +2320,22 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -2306,25 +2347,25 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -2333,22 +2374,22 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>50</v>
@@ -2360,22 +2401,22 @@
         <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -2387,52 +2428,52 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -2441,22 +2482,22 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -2468,22 +2509,22 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>50</v>
@@ -2495,46 +2536,46 @@
         <v>30</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>80</v>
@@ -2546,25 +2587,25 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -2573,22 +2614,22 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>70</v>
@@ -2600,22 +2641,22 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>30</v>
@@ -2627,22 +2668,22 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -2654,49 +2695,49 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>120</v>
@@ -2708,25 +2749,25 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>434</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -2735,22 +2776,22 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>100</v>
@@ -2762,22 +2803,22 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>80</v>
@@ -2789,19 +2830,19 @@
         <v>20</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>100</v>
@@ -2813,22 +2854,22 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>100</v>
@@ -2840,19 +2881,19 @@
         <v>10</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>40</v>
@@ -2864,22 +2905,22 @@
         <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>250</v>
@@ -2891,22 +2932,22 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>110</v>
@@ -2918,22 +2959,22 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>75</v>
@@ -2945,21 +2986,21 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>35</v>
@@ -2971,47 +3012,47 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>436</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>90</v>
@@ -3023,24 +3064,24 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -3049,21 +3090,21 @@
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>90</v>
@@ -3075,47 +3116,47 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>15</v>
@@ -3127,21 +3168,21 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>18</v>
@@ -3153,24 +3194,24 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -3179,24 +3220,24 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -3205,73 +3246,73 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>40</v>
@@ -3283,73 +3324,73 @@
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>70</v>
@@ -3361,21 +3402,21 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62">
         <v>130</v>
@@ -3387,21 +3428,21 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>65</v>
@@ -3413,44 +3454,44 @@
         <v>25</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>110</v>
@@ -3462,18 +3503,18 @@
         <v>5</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>150</v>
@@ -3485,21 +3526,21 @@
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <v>80</v>
@@ -3511,24 +3552,24 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>60</v>
@@ -3537,21 +3578,21 @@
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>90</v>
@@ -3563,21 +3604,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D70">
         <v>75</v>
@@ -3589,21 +3630,21 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>100</v>
@@ -3615,21 +3656,21 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>50</v>
@@ -3641,24 +3682,24 @@
         <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>80</v>
@@ -3667,21 +3708,21 @@
         <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>437</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -3693,24 +3734,24 @@
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>90</v>
@@ -3719,24 +3760,24 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -3745,21 +3786,21 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D77">
         <v>30</v>
@@ -3771,50 +3812,50 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>75</v>
@@ -3823,24 +3864,24 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -3849,47 +3890,47 @@
         <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>40</v>
@@ -3901,21 +3942,21 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <v>120</v>
@@ -3927,18 +3968,18 @@
         <v>5</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <v>80</v>
@@ -3950,151 +3991,151 @@
         <v>20</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -4103,21 +4144,21 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <v>40</v>
@@ -4129,21 +4170,21 @@
         <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D92">
         <v>35</v>
@@ -4155,18 +4196,18 @@
         <v>35</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>120</v>
@@ -4178,21 +4219,21 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>437</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D94">
         <v>25</v>
@@ -4204,24 +4245,24 @@
         <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>90</v>
@@ -4230,24 +4271,24 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>75</v>
@@ -4256,21 +4297,21 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D97">
         <v>15</v>
@@ -4282,21 +4323,21 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>40</v>
@@ -4308,18 +4349,18 @@
         <v>35</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>65</v>
@@ -4331,21 +4372,21 @@
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>90</v>
@@ -4357,24 +4398,24 @@
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>80</v>
@@ -4383,21 +4424,21 @@
         <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D102">
         <v>40</v>
@@ -4409,21 +4450,21 @@
         <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D103">
         <v>20</v>
@@ -4435,21 +4476,21 @@
         <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>55</v>
@@ -4461,21 +4502,21 @@
         <v>25</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>80</v>
@@ -4487,125 +4528,125 @@
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106">
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>438</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <v>75</v>
@@ -4617,21 +4658,21 @@
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D111">
         <v>50</v>
@@ -4643,18 +4684,18 @@
         <v>15</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D112">
         <v>60</v>
@@ -4666,24 +4707,24 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -4692,21 +4733,21 @@
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D114">
         <v>40</v>
@@ -4718,21 +4759,21 @@
         <v>35</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>85</v>
@@ -4741,24 +4782,24 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -4767,21 +4808,21 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D117">
         <v>200</v>
@@ -4793,50 +4834,50 @@
         <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>55</v>
@@ -4845,21 +4886,21 @@
         <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D120">
         <v>130</v>
@@ -4871,21 +4912,21 @@
         <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D121">
         <v>140</v>
@@ -4897,21 +4938,21 @@
         <v>5</v>
       </c>
       <c r="G121" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D122">
         <v>80</v>
@@ -4923,18 +4964,18 @@
         <v>20</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D123">
         <v>70</v>
@@ -4946,24 +4987,24 @@
         <v>20</v>
       </c>
       <c r="G123" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>75</v>
@@ -4972,21 +5013,21 @@
         <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>65</v>
@@ -4998,21 +5039,21 @@
         <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>30</v>
@@ -5024,24 +5065,24 @@
         <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -5050,47 +5091,47 @@
         <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128">
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>120</v>
@@ -5102,24 +5143,24 @@
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>90</v>
@@ -5128,21 +5169,21 @@
         <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D131">
         <v>20</v>
@@ -5154,50 +5195,50 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -5206,21 +5247,21 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D134">
         <v>65</v>
@@ -5232,21 +5273,21 @@
         <v>20</v>
       </c>
       <c r="G134" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D135">
         <v>80</v>
@@ -5258,21 +5299,21 @@
         <v>15</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>437</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>95</v>
@@ -5281,21 +5322,21 @@
         <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D137">
         <v>50</v>
@@ -5304,27 +5345,27 @@
         <v>100</v>
       </c>
       <c r="F137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>75</v>
@@ -5333,21 +5374,21 @@
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D139">
         <v>80</v>
@@ -5359,50 +5400,50 @@
         <v>25</v>
       </c>
       <c r="G139" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140">
         <v>10</v>
       </c>
       <c r="G140" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>90</v>
@@ -5411,24 +5452,24 @@
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>55</v>
@@ -5437,21 +5478,21 @@
         <v>20</v>
       </c>
       <c r="G142" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>90</v>
@@ -5463,73 +5504,73 @@
         <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>60</v>
       </c>
       <c r="E144" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F144">
         <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>20</v>
       </c>
       <c r="G145" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D146">
         <v>50</v>
@@ -5541,21 +5582,21 @@
         <v>35</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>100</v>
@@ -5564,21 +5605,21 @@
         <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D148">
         <v>90</v>
@@ -5590,47 +5631,47 @@
         <v>20</v>
       </c>
       <c r="G148" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149">
         <v>20</v>
       </c>
       <c r="G149" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D150">
         <v>120</v>
@@ -5642,21 +5683,21 @@
         <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B151" t="s">
+        <v>439</v>
+      </c>
+      <c r="C151" t="s">
         <v>0</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1</v>
       </c>
       <c r="D151">
         <v>110</v>
@@ -5668,21 +5709,21 @@
         <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D152">
         <v>75</v>
@@ -5694,21 +5735,21 @@
         <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B153" t="s">
+        <v>439</v>
+      </c>
+      <c r="C153" t="s">
         <v>0</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1</v>
       </c>
       <c r="D153">
         <v>40</v>
@@ -5720,24 +5761,24 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B154" t="s">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>100</v>
@@ -5746,21 +5787,21 @@
         <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B155" t="s">
+        <v>439</v>
+      </c>
+      <c r="C155" t="s">
         <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1</v>
       </c>
       <c r="D155">
         <v>90</v>
@@ -5772,24 +5813,24 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <v>90</v>
@@ -5798,47 +5839,47 @@
         <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>80</v>
@@ -5850,21 +5891,21 @@
         <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>437</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D159">
         <v>25</v>
@@ -5876,21 +5917,21 @@
         <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D160">
         <v>55</v>
@@ -5902,18 +5943,18 @@
         <v>30</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D161">
         <v>45</v>
@@ -5925,18 +5966,18 @@
         <v>25</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>40</v>
@@ -5948,18 +5989,18 @@
         <v>25</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D163">
         <v>80</v>
@@ -5971,47 +6012,47 @@
         <v>15</v>
       </c>
       <c r="G163" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D165">
         <v>60</v>
@@ -6023,44 +6064,44 @@
         <v>35</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166">
         <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D167">
         <v>15</v>
@@ -6072,10 +6113,10 @@
         <v>20</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -6085,24 +6126,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
